--- a/Femto Project sample management.xlsx
+++ b/Femto Project sample management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="60">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -279,6 +279,22 @@
   </si>
   <si>
     <t>NC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/E 검토용 - Not operation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤재성</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,38 +826,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1144,25 +1173,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G29:G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B2" s="58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B3" s="61"/>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B3" s="59"/>
       <c r="C3" s="51" t="s">
         <v>0</v>
       </c>
@@ -1172,13 +1202,16 @@
       <c r="E3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="62"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="63" t="s">
+      <c r="F3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="61">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1187,60 +1220,70 @@
       <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="65"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67">
+      <c r="F4" s="72">
+        <v>43236</v>
+      </c>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="67"/>
+      <c r="C5" s="63">
         <v>2</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" ht="17.25" thickBot="1">
+      <c r="F5" s="73"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" ht="17.25" thickBot="1">
       <c r="B6" s="68"/>
-      <c r="C6" s="69">
+      <c r="C6" s="64">
         <v>3</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="63" t="s">
+      <c r="F6" s="73"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="61">
         <v>1</v>
       </c>
-      <c r="D7" s="70"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="65"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67">
+      <c r="F7" s="72">
+        <v>43236</v>
+      </c>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="67"/>
+      <c r="C8" s="63">
         <v>2</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:6" ht="17.25" thickBot="1">
+      <c r="F8" s="45"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1">
       <c r="B9" s="68"/>
-      <c r="C9" s="69">
+      <c r="C9" s="64">
         <v>3</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1256,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1274,13 +1317,13 @@
     </row>
     <row r="3" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="27" t="s">
@@ -1436,30 +1479,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="7" max="7" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1">
-      <c r="F4" s="41" t="s">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+      <c r="G4" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="2" customFormat="1" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="50" t="s">
         <v>0</v>
       </c>
@@ -1469,17 +1513,20 @@
       <c r="D5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="G5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="H5" s="52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1489,17 +1536,20 @@
       <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="72">
+        <v>43236</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1509,15 +1559,18 @@
       <c r="D7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="73">
+        <v>43235</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="G7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1527,15 +1580,16 @@
       <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1545,15 +1599,16 @@
       <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="73"/>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1563,15 +1618,16 @@
       <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="55" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="2:7" ht="17.25" thickBot="1">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:8" ht="17.25" thickBot="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -1579,15 +1635,18 @@
         <v>4</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="H11" s="49" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1618,10 +1677,10 @@
     </row>
     <row r="3" spans="2:10" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="41" t="s">
@@ -1791,35 +1850,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J29"/>
+  <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:11">
       <c r="B2" s="47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:11" ht="17.25" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="F4" s="57" t="s">
+      <c r="G4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="2:10" ht="17.25" thickBot="1">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" thickBot="1">
       <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
@@ -1829,20 +1889,21 @@
       <c r="D5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="H5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="J5" s="28"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1852,20 +1913,21 @@
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="G6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="H6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1875,20 +1937,21 @@
       <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1898,20 +1961,21 @@
       <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="J8" s="9"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1921,20 +1985,21 @@
       <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="H9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1944,20 +2009,21 @@
       <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="7">
         <v>6</v>
       </c>
@@ -1967,20 +2033,21 @@
       <c r="D11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="7">
         <v>7</v>
       </c>
@@ -1990,20 +2057,21 @@
       <c r="D12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="2:10" ht="17.25" thickBot="1">
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -2013,34 +2081,35 @@
       <c r="D13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="22"/>
+      <c r="G13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="17" spans="2:9" ht="17.25" thickBot="1">
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="17" spans="2:10" ht="17.25" thickBot="1">
       <c r="B17" s="47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1">
-      <c r="E18" s="57" t="s">
+    <row r="18" spans="2:10" ht="17.25" thickBot="1">
+      <c r="F18" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="2:9" ht="17.25" thickBot="1">
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.25" thickBot="1">
       <c r="B19" s="41" t="s">
         <v>0</v>
       </c>
@@ -2050,17 +2119,20 @@
       <c r="D19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="G19" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="H19" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:10">
       <c r="B20" s="3">
         <v>1</v>
       </c>
@@ -2068,19 +2140,22 @@
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="72">
+        <v>43236</v>
+      </c>
+      <c r="F20" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="G20" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="H20" s="54" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:10">
       <c r="B21" s="7">
         <v>2</v>
       </c>
@@ -2090,17 +2165,18 @@
       <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="73"/>
+      <c r="F21" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="H21" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -2110,17 +2186,18 @@
       <c r="D22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="73"/>
+      <c r="F22" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="H22" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="7">
         <v>4</v>
       </c>
@@ -2130,17 +2207,18 @@
       <c r="D23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="73"/>
+      <c r="F23" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="H23" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="7">
         <v>5</v>
       </c>
@@ -2150,17 +2228,18 @@
       <c r="D24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="73"/>
+      <c r="F24" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="H24" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="7">
         <v>6</v>
       </c>
@@ -2170,17 +2249,18 @@
       <c r="D25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="73"/>
+      <c r="F25" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="H25" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="7">
         <v>7</v>
       </c>
@@ -2190,17 +2270,18 @@
       <c r="D26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="73"/>
+      <c r="F26" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="H26" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="7">
         <v>8</v>
       </c>
@@ -2210,17 +2291,18 @@
       <c r="D27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="H27" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="7">
         <v>9</v>
       </c>
@@ -2230,17 +2312,18 @@
       <c r="D28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="73"/>
+      <c r="F28" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="H28" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="7">
         <v>10</v>
       </c>
@@ -2248,22 +2331,23 @@
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>45</v>
       </c>
+      <c r="H29" s="54" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="F18:J18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Femto Project sample management.xlsx
+++ b/Femto Project sample management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="61">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -294,7 +294,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>윤재성</t>
+    <t>Dead</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,9 +825,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,6 +844,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,16 +872,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1179,20 +1186,20 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B3" s="59"/>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="58"/>
       <c r="C3" s="51" t="s">
         <v>0</v>
       </c>
@@ -1202,16 +1209,16 @@
       <c r="E3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="60"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="66" t="s">
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="60">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1220,52 +1227,52 @@
       <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="65">
         <v>43236</v>
       </c>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="67"/>
-      <c r="C5" s="63">
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="70"/>
+      <c r="C5" s="62">
         <v>2</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B6" s="68"/>
-      <c r="C6" s="64">
+    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="71"/>
+      <c r="C6" s="63">
         <v>3</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="73"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="66" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <v>1</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="65">
         <v>43236</v>
       </c>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="67"/>
-      <c r="C8" s="63">
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="70"/>
+      <c r="C8" s="62">
         <v>2</v>
       </c>
       <c r="D8" s="10"/>
@@ -1275,14 +1282,14 @@
       <c r="F8" s="45"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B9" s="68"/>
-      <c r="C9" s="64">
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="71"/>
+      <c r="C9" s="63">
         <v>3</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="75"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="23"/>
     </row>
   </sheetData>
@@ -1299,33 +1306,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="F20:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="E4" s="69" t="s">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-    </row>
-    <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1">
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1383,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1410,7 +1417,7 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17.25" thickBot="1">
+    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -1482,28 +1489,28 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G4" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="17.25" thickBot="1">
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="50" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1520,7 @@
       <c r="D5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="51" t="s">
@@ -1526,19 +1533,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="72">
-        <v>43236</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="5" t="s">
         <v>48</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1559,7 +1562,7 @@
       <c r="D7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="66">
         <v>43235</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1570,7 +1573,7 @@
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1580,7 +1583,7 @@
       <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1589,7 +1592,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1599,7 +1602,7 @@
       <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="9" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1611,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1618,7 +1621,7 @@
       <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1627,7 +1630,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" ht="17.25" thickBot="1">
+    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -1637,7 +1640,9 @@
       <c r="D11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="74"/>
+      <c r="E11" s="67">
+        <v>43237</v>
+      </c>
       <c r="F11" s="15" t="s">
         <v>4</v>
       </c>
@@ -1663,26 +1668,26 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="6" max="6" width="8.375" customWidth="1"/>
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-    </row>
-    <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="41" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1730,7 +1735,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1757,7 +1762,7 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1784,7 +1789,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1811,7 +1816,7 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" ht="17.25" thickBot="1">
+    <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -1852,34 +1857,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1">
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1908,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1927,7 +1932,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1951,7 +1956,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1975,7 +1980,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1999,7 +2004,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -2023,7 +2028,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>6</v>
       </c>
@@ -2047,7 +2052,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>7</v>
       </c>
@@ -2071,7 +2076,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1">
+    <row r="13" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -2095,21 +2100,21 @@
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25" thickBot="1">
+    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="17.25" thickBot="1">
-      <c r="F18" s="69" t="s">
+    <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="2:10" ht="17.25" thickBot="1">
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="74"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="41" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2124,7 @@
       <c r="D19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="56" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="43" t="s">
@@ -2132,21 +2137,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="72">
-        <v>43236</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="E20" s="65"/>
+      <c r="F20" s="75">
+        <v>200</v>
       </c>
       <c r="G20" s="53" t="s">
         <v>45</v>
@@ -2155,7 +2158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>2</v>
       </c>
@@ -2165,9 +2168,9 @@
       <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="55" t="s">
-        <v>42</v>
+      <c r="E21" s="66"/>
+      <c r="F21" s="76">
+        <v>200</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>45</v>
@@ -2176,7 +2179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -2186,9 +2189,9 @@
       <c r="D22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="55" t="s">
-        <v>42</v>
+      <c r="E22" s="66"/>
+      <c r="F22" s="76">
+        <v>230</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>45</v>
@@ -2197,7 +2200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>4</v>
       </c>
@@ -2207,7 +2210,7 @@
       <c r="D23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="73"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="55" t="s">
         <v>42</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>5</v>
       </c>
@@ -2228,9 +2231,9 @@
       <c r="D24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="55" t="s">
-        <v>42</v>
+      <c r="E24" s="66"/>
+      <c r="F24" s="76">
+        <v>230</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>45</v>
@@ -2239,7 +2242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>6</v>
       </c>
@@ -2249,9 +2252,9 @@
       <c r="D25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="55" t="s">
-        <v>42</v>
+      <c r="E25" s="66"/>
+      <c r="F25" s="76">
+        <v>230</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>45</v>
@@ -2260,7 +2263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>7</v>
       </c>
@@ -2270,9 +2273,9 @@
       <c r="D26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="55" t="s">
-        <v>42</v>
+      <c r="E26" s="66"/>
+      <c r="F26" s="76">
+        <v>250</v>
       </c>
       <c r="G26" s="54" t="s">
         <v>45</v>
@@ -2281,7 +2284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>8</v>
       </c>
@@ -2291,9 +2294,9 @@
       <c r="D27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="55" t="s">
-        <v>42</v>
+      <c r="E27" s="66"/>
+      <c r="F27" s="76">
+        <v>250</v>
       </c>
       <c r="G27" s="54" t="s">
         <v>45</v>
@@ -2302,7 +2305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>9</v>
       </c>
@@ -2312,9 +2315,9 @@
       <c r="D28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="55" t="s">
-        <v>42</v>
+      <c r="E28" s="66"/>
+      <c r="F28" s="76">
+        <v>250</v>
       </c>
       <c r="G28" s="54" t="s">
         <v>45</v>
@@ -2323,7 +2326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>10</v>
       </c>
@@ -2333,9 +2336,11 @@
       <c r="D29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="55" t="s">
-        <v>42</v>
+      <c r="E29" s="66">
+        <v>43237</v>
+      </c>
+      <c r="F29" s="76">
+        <v>200</v>
       </c>
       <c r="G29" s="54" t="s">
         <v>45</v>
@@ -2362,20 +2367,20 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1"/>
-    <row r="5" spans="2:7" ht="17.25" thickBot="1">
+    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2411,7 +2416,7 @@
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -2427,7 +2432,7 @@
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -2443,7 +2448,7 @@
       </c>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1">
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13">
         <v>4</v>
       </c>

--- a/Femto Project sample management.xlsx
+++ b/Femto Project sample management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -301,6 +301,14 @@
     <t>-</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;#&quot;00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +862,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,12 +884,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1186,19 +1194,19 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="17.25" thickBot="1">
       <c r="B2" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="17.25" thickBot="1">
       <c r="B3" s="58"/>
       <c r="C3" s="51" t="s">
         <v>0</v>
@@ -1214,8 +1222,8 @@
       </c>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="71" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="60">
@@ -1232,8 +1240,8 @@
       </c>
       <c r="G4" s="61"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
+    <row r="5" spans="2:7">
+      <c r="B5" s="72"/>
       <c r="C5" s="62">
         <v>2</v>
       </c>
@@ -1244,8 +1252,8 @@
       <c r="F5" s="66"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
+    <row r="6" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B6" s="73"/>
       <c r="C6" s="63">
         <v>3</v>
       </c>
@@ -1254,8 +1262,8 @@
       <c r="F6" s="66"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" s="71" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="60">
@@ -1270,8 +1278,8 @@
       </c>
       <c r="G7" s="61"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
+    <row r="8" spans="2:7">
+      <c r="B8" s="72"/>
       <c r="C8" s="62">
         <v>2</v>
       </c>
@@ -1282,8 +1290,8 @@
       <c r="F8" s="45"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="71"/>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B9" s="73"/>
       <c r="C9" s="63">
         <v>3</v>
       </c>
@@ -1310,29 +1318,29 @@
       <selection activeCell="G20" sqref="F20:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10">
       <c r="B2" s="47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="72" t="s">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1">
+      <c r="E4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-    </row>
-    <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1417,7 +1425,7 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1446,7 +1454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="17.25" thickBot="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>
@@ -1488,29 +1496,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8">
       <c r="B2" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="G4" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="50" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1552,7 +1560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1568,12 +1576,12 @@
       <c r="F7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>42</v>
+      <c r="G7" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1585,14 +1593,14 @@
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1604,14 +1612,14 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -1623,14 +1631,14 @@
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="17.25" thickBot="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -1665,29 +1673,29 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="6" max="6" width="8.375" customWidth="1"/>
     <col min="10" max="10" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10">
       <c r="B2" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-    </row>
-    <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:10" ht="17.25" thickBot="1">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="2:10" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="41" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1716,7 +1724,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>48</v>
@@ -1735,7 +1743,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1762,7 +1770,7 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1770,7 +1778,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>48</v>
@@ -1789,7 +1797,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1816,7 +1824,7 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="17.25" thickBot="1">
       <c r="B10" s="13">
         <v>5</v>
       </c>
@@ -1857,34 +1865,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11">
       <c r="B2" s="47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:11" ht="17.25" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-    </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" thickBot="1">
       <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1916,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1932,7 +1940,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1956,7 +1964,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1980,7 +1988,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -2004,7 +2012,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11">
       <c r="B10" s="7">
         <v>5</v>
       </c>
@@ -2028,7 +2036,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11">
       <c r="B11" s="7">
         <v>6</v>
       </c>
@@ -2052,7 +2060,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11">
       <c r="B12" s="7">
         <v>7</v>
       </c>
@@ -2076,7 +2084,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="17.25" thickBot="1">
       <c r="B13" s="13">
         <v>8</v>
       </c>
@@ -2100,21 +2108,21 @@
       <c r="J13" s="22"/>
       <c r="K13" s="23"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="17.25" thickBot="1">
       <c r="B17" s="47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="72" t="s">
+    <row r="18" spans="2:10" ht="17.25" thickBot="1">
+      <c r="F18" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
-    </row>
-    <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.25" thickBot="1">
       <c r="B19" s="41" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="B20" s="3">
         <v>1</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>60</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="75">
+      <c r="F20" s="69">
         <v>200</v>
       </c>
       <c r="G20" s="53" t="s">
@@ -2158,7 +2166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="7">
         <v>2</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="66"/>
-      <c r="F21" s="76">
+      <c r="F21" s="70">
         <v>200</v>
       </c>
       <c r="G21" s="54" t="s">
@@ -2179,7 +2187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -2190,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="66"/>
-      <c r="F22" s="76">
+      <c r="F22" s="70">
         <v>230</v>
       </c>
       <c r="G22" s="54" t="s">
@@ -2200,7 +2208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="B23" s="7">
         <v>4</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="B24" s="7">
         <v>5</v>
       </c>
@@ -2232,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="66"/>
-      <c r="F24" s="76">
+      <c r="F24" s="70">
         <v>230</v>
       </c>
       <c r="G24" s="54" t="s">
@@ -2242,7 +2250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="B25" s="7">
         <v>6</v>
       </c>
@@ -2253,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="66"/>
-      <c r="F25" s="76">
+      <c r="F25" s="70">
         <v>230</v>
       </c>
       <c r="G25" s="54" t="s">
@@ -2263,7 +2271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="B26" s="7">
         <v>7</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="66"/>
-      <c r="F26" s="76">
+      <c r="F26" s="70">
         <v>250</v>
       </c>
       <c r="G26" s="54" t="s">
@@ -2284,7 +2292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="B27" s="7">
         <v>8</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="66"/>
-      <c r="F27" s="76">
+      <c r="F27" s="70">
         <v>250</v>
       </c>
       <c r="G27" s="54" t="s">
@@ -2305,7 +2313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="B28" s="7">
         <v>9</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="66"/>
-      <c r="F28" s="76">
+      <c r="F28" s="70">
         <v>250</v>
       </c>
       <c r="G28" s="54" t="s">
@@ -2326,7 +2334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="B29" s="7">
         <v>10</v>
       </c>
@@ -2339,7 +2347,7 @@
       <c r="E29" s="66">
         <v>43237</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="70">
         <v>200</v>
       </c>
       <c r="G29" s="54" t="s">
@@ -2367,20 +2375,20 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1">
       <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
@@ -2400,7 +2408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2416,7 +2424,7 @@
       </c>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -2432,7 +2440,7 @@
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -2448,7 +2456,7 @@
       </c>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="17.25" thickBot="1">
       <c r="B9" s="13">
         <v>4</v>
       </c>

--- a/Femto Project sample management.xlsx
+++ b/Femto Project sample management.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="69">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>F/W 용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Tantal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -307,6 +303,34 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Booting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>전원 Short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>booting 후 바로 꺼짐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -669,6 +693,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -676,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -884,6 +919,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1241,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1">
       <c r="B2" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1">
@@ -1218,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="60">
         <v>1</v>
@@ -1233,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="65">
         <v>43236</v>
@@ -1247,7 +1285,7 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="66"/>
       <c r="G5" s="11"/>
@@ -1264,14 +1302,14 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="60">
         <v>1</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="65">
         <v>43236</v>
@@ -1285,7 +1323,7 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="11"/>
@@ -1494,31 +1532,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9">
       <c r="B2" s="47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1">
+    <row r="3" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1">
       <c r="G4" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="17.25" thickBot="1">
+    <row r="5" spans="2:9" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="50" t="s">
         <v>0</v>
       </c>
@@ -1529,38 +1567,44 @@
         <v>8</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="65"/>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="H6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="7">
         <v>2</v>
       </c>
@@ -1568,20 +1612,25 @@
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="66">
         <v>43235</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="H7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1598,9 +1647,12 @@
       <c r="G8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="H8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="7">
         <v>4</v>
       </c>
@@ -1617,14 +1669,17 @@
       <c r="G9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="H9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="7">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>4</v>
@@ -1636,9 +1691,14 @@
       <c r="G10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:8" ht="17.25" thickBot="1">
+      <c r="H10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickBot="1">
       <c r="B11" s="13">
         <v>6</v>
       </c>
@@ -1646,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="67">
         <v>43237</v>
@@ -1657,8 +1717,9 @@
       <c r="G11" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="49" t="s">
-        <v>58</v>
+      <c r="H11" s="77"/>
+      <c r="I11" s="49" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -1721,13 +1782,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>4</v>
@@ -1748,13 +1809,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>4</v>
@@ -1775,13 +1836,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>4</v>
@@ -1802,13 +1863,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>4</v>
@@ -1829,13 +1890,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>4</v>
@@ -2133,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>12</v>
@@ -2142,7 +2203,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -2150,20 +2211,20 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E20" s="65"/>
       <c r="F20" s="69">
         <v>200</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -2181,10 +2242,10 @@
         <v>200</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -2202,10 +2263,10 @@
         <v>230</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -2223,10 +2284,10 @@
         <v>42</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -2244,10 +2305,10 @@
         <v>230</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -2265,10 +2326,10 @@
         <v>230</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -2286,10 +2347,10 @@
         <v>250</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -2307,10 +2368,10 @@
         <v>250</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -2328,10 +2389,10 @@
         <v>250</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -2342,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="66">
         <v>43237</v>
@@ -2351,10 +2412,10 @@
         <v>200</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2507,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>22</v>
@@ -2468,7 +2529,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>27</v>
